--- a/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101PrdbtzmrkBrokenData.xlsx
+++ b/CasinoGamesAPITest/CasinoGamesAPITest/src/test/java/CraftBet_001_APICasinoGamesBrokenData/101PrdbtzmrkBrokenData.xlsx
@@ -6,17 +6,17 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CopyGames" r:id="rId10" sheetId="9"/>
-    <sheet name="ProvidersBrokenImgWeb" r:id="rId7" sheetId="10"/>
-    <sheet name="GamesBrokenImgWeb" r:id="rId11" sheetId="11"/>
-    <sheet name="GamesBrokenURL" r:id="rId8" sheetId="12"/>
-    <sheet name="GamesBrokenImgMobile" r:id="rId9" sheetId="13"/>
+    <sheet name="CopyGames" r:id="rId10" sheetId="19"/>
+    <sheet name="ProvidersBrokenImgWeb" r:id="rId7" sheetId="20"/>
+    <sheet name="GamesBrokenImgWeb" r:id="rId11" sheetId="21"/>
+    <sheet name="GamesBrokenURL" r:id="rId8" sheetId="22"/>
+    <sheet name="GamesBrokenImgMobile" r:id="rId9" sheetId="23"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="702">
   <si>
     <t>1  This game has duplicate Please check it :  Name =  American Roulette</t>
   </si>
@@ -1090,6 +1090,1038 @@
   </si>
   <si>
     <t>1726  Game ID = 3413  Game Provider Name = PragmaticLive  Game Name = Speed Blackjack 1 - Ruby  :   src = https://resources.iqsoftllc.com/products/pragmaticlive/mob/SpeedBaccarat1Ruby.jpg</t>
+  </si>
+  <si>
+    <t>1  This game has duplicate Please check it :  Name =  American Blackjack</t>
+  </si>
+  <si>
+    <t>2  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>3  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>4  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>5  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>6  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>7  This game has duplicate Please check it :  Name =  American Roulette</t>
+  </si>
+  <si>
+    <t>8  This game has duplicate Please check it :  Name =  Andar Bahar</t>
+  </si>
+  <si>
+    <t>9  This game has duplicate Please check it :  Name =  Andar Bahar</t>
+  </si>
+  <si>
+    <t>10  This game has duplicate Please check it :  Name =  Andar Bahar</t>
+  </si>
+  <si>
+    <t>11  This game has duplicate Please check it :  Name =  Apollo</t>
+  </si>
+  <si>
+    <t>12  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>13  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>14  This game has duplicate Please check it :  Name =  Baccarat</t>
+  </si>
+  <si>
+    <t>15  This game has duplicate Please check it :  Name =  Baccarat A</t>
+  </si>
+  <si>
+    <t>16  This game has duplicate Please check it :  Name =  Baccarat B</t>
+  </si>
+  <si>
+    <t>17  This game has duplicate Please check it :  Name =  Backgammon</t>
+  </si>
+  <si>
+    <t>18  This game has duplicate Please check it :  Name =  Beauty and the Beast</t>
+  </si>
+  <si>
+    <t>19  This game has duplicate Please check it :  Name =  Black Jack</t>
+  </si>
+  <si>
+    <t>20  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>21  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>22  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>23  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>24  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>25  This game has duplicate Please check it :  Name =  Blackjack</t>
+  </si>
+  <si>
+    <t>26  This game has duplicate Please check it :  Name =  Blackjack 16</t>
+  </si>
+  <si>
+    <t>27  This game has duplicate Please check it :  Name =  Blackjack 7</t>
+  </si>
+  <si>
+    <t>28  This game has duplicate Please check it :  Name =  Blackjack A</t>
+  </si>
+  <si>
+    <t>29  This game has duplicate Please check it :  Name =  Blackjack B</t>
+  </si>
+  <si>
+    <t>30  This game has duplicate Please check it :  Name =  Blackjack C</t>
+  </si>
+  <si>
+    <t>31  This game has duplicate Please check it :  Name =  Blackjack D</t>
+  </si>
+  <si>
+    <t>32  This game has duplicate Please check it :  Name =  Blackjack E</t>
+  </si>
+  <si>
+    <t>33  This game has duplicate Please check it :  Name =  Blackjack F</t>
+  </si>
+  <si>
+    <t>34  This game has duplicate Please check it :  Name =  Blackjack G</t>
+  </si>
+  <si>
+    <t>35  This game has duplicate Please check it :  Name =  Blackjack H</t>
+  </si>
+  <si>
+    <t>36  This game has duplicate Please check it :  Name =  Blackjack I</t>
+  </si>
+  <si>
+    <t>37  This game has duplicate Please check it :  Name =  Blackjack J</t>
+  </si>
+  <si>
+    <t>38  This game has duplicate Please check it :  Name =  Blackjack VIP</t>
+  </si>
+  <si>
+    <t>39  This game has duplicate Please check it :  Name =  Caligula</t>
+  </si>
+  <si>
+    <t>40  This game has duplicate Please check it :  Name =  Casino Hold'em</t>
+  </si>
+  <si>
+    <t>41  This game has duplicate Please check it :  Name =  Craps</t>
+  </si>
+  <si>
+    <t>42  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>43  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>44  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>45  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>46  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>47  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>48  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>49  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>50  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>51  This game has duplicate Please check it :  Name =  Dragon Tiger</t>
+  </si>
+  <si>
+    <t>52  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>53  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>54  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>55  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>56  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>57  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>58  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>59  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>60  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>61  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>62  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>63  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>64  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>65  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>66  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>67  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>68  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>69  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>70  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>71  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>72  This game has duplicate Please check it :  Name =  European Roulette</t>
+  </si>
+  <si>
+    <t>73  This game has duplicate Please check it :  Name =  French Roulette</t>
+  </si>
+  <si>
+    <t>74  This game has duplicate Please check it :  Name =  Fruits</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Golden Pig</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Halloween</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Journey to the West</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Lobby</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  No Comm Speed Baccarat 1</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  No Commission Baccarat</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Pontoon</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Roman Empire</t>
+  </si>
+  <si>
+    <t>85  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>86  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>87  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>88  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>89  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>91  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>92  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  Speed Roulette</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Teen Patti</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Unlimited Blackjack</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  Virtual Roulette</t>
+  </si>
+  <si>
+    <t>98  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>199  Game ID = 5142  Game Provider Name = Edict   Game Name =  AfricanMask  src = https://static.egamings.com/games/edict/african_mask.jpg</t>
+  </si>
+  <si>
+    <t>270  Game ID = 5177  Game Provider Name = Edict   Game Name =  AncientRichesHTML5  src = https://static.egamings.com/games/edict/ancient_riches_html5.jpg</t>
+  </si>
+  <si>
+    <t>437  Game ID = 5176  Game Provider Name = Edict   Game Name =  BeautifulNatureHTML5  src = https://static.egamings.com/games/edict/beautiful_nature_html5.jpg</t>
+  </si>
+  <si>
+    <t>493  Game ID = 5175  Game Provider Name = Edict   Game Name =  BlackBeauty  src = https://static.egamings.com/games/edict/black_beauty.jpg</t>
+  </si>
+  <si>
+    <t>741  Game ID = 1524  Game Provider Name = PragmaticPlay   Game Name =  Bonanza Gold  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>778  Game ID = 5189  Game Provider Name = Edict   Game Name =  Book of Fire  src = https://static.egamings.com/games/edict/book_of_fire.jpg</t>
+  </si>
+  <si>
+    <t>828  Game ID = 1597  Game Provider Name = PragmaticPlay   Game Name =  Book of Tut  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>847  Game ID = 5174  Game Provider Name = Edict   Game Name =  BookofRomeoandJuliaHTML5  src = https://static.egamings.com/games/edict/book_of_romeo_and_julia_html.jpg</t>
+  </si>
+  <si>
+    <t>851  Game ID = 5173  Game Provider Name = Edict   Game Name =  BookoftheAgesHTML5  src = https://static.egamings.com/games/edict/book_of_the_ages_html5.jpg</t>
+  </si>
+  <si>
+    <t>854  Game ID = 5172  Game Provider Name = Edict   Game Name =  BooksandBulls  src = https://static.egamings.com/games/edict/books_and_bulls.jpg</t>
+  </si>
+  <si>
+    <t>921  Game ID = 1602  Game Provider Name = PragmaticPlay   Game Name =  Busy Bees  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1091  Game ID = 1515  Game Provider Name = PragmaticPlay   Game Name =  Club Tropicana  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1151  Game ID = 5171  Game Provider Name = Edict   Game Name =  CrystalBallHTML5  src = https://static.egamings.com/games/edict/crystal_ball_html.jpg</t>
+  </si>
+  <si>
+    <t>1297  Game ID = 5170  Game Provider Name = Edict   Game Name =  DragonandKnights  src = https://static.egamings.com/games/edict/dragon_and_knights.jpg</t>
+  </si>
+  <si>
+    <t>1417  Game ID = 5169  Game Provider Name = Edict   Game Name =  ExplodiacHTML5  src = https://static.egamings.com/games/edict/explodiac_html.jpg</t>
+  </si>
+  <si>
+    <t>1447  Game ID = 5168  Game Provider Name = Edict   Game Name =  FancyFruitsHTML5  src = https://static.egamings.com/games/edict/fancy_fruits_html.jpg</t>
+  </si>
+  <si>
+    <t>1471  Game ID = 1514  Game Provider Name = PragmaticPlay   Game Name =  Fire Archer  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1537  Game ID = 5167  Game Provider Name = Edict   Game Name =  FortBraveHTML5  src = https://static.egamings.com/games/edict/fort_brave_html.jpg</t>
+  </si>
+  <si>
+    <t>1609  Game ID = 5166  Game Provider Name = Edict   Game Name =  FruitManiaHTML5  src = https://static.egamings.com/games/edict/fruit_mania_html.jpg</t>
+  </si>
+  <si>
+    <t>1667  Game ID = 5165  Game Provider Name = Edict   Game Name =  GatesofPersia  src = https://static.egamings.com/games/edict/gates_of_persia.jpg</t>
+  </si>
+  <si>
+    <t>1702  Game ID = 5164  Game Provider Name = Edict   Game Name =  GlamorousTimesHTML5  src = https://static.egamings.com/games/edict/glamorous_times_html5.jpg</t>
+  </si>
+  <si>
+    <t>1764  Game ID = 1531  Game Provider Name = PragmaticPlay   Game Name =  Golden Ox  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1765  Game ID = 1565  Game Provider Name = PragmaticPlay   Game Name =  Golden Pig  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1813  Game ID = 5163  Game Provider Name = Edict   Game Name =  GuardiansOfTheMonastery  src = https://static.egamings.com/games/edict/guardians_of_the_monastery.jpg</t>
+  </si>
+  <si>
+    <t>2110  Game ID = 5162  Game Provider Name = Edict   Game Name =  KingandQueen  src = https://static.egamings.com/games/edict/king_and_queen.jpg</t>
+  </si>
+  <si>
+    <t>2112  Game ID = 5161  Game Provider Name = Edict   Game Name =  KingoftheJungle  src = https://static.egamings.com/games/edict/king_of_the_jungle.jpg</t>
+  </si>
+  <si>
+    <t>2131  Game ID = 5160  Game Provider Name = Edict   Game Name =  LaDolceVitaHTML5  src = https://static.egamings.com/games/edict/la_dolce_vita_html5.jpg</t>
+  </si>
+  <si>
+    <t>2232  Game ID = 1598  Game Provider Name = PragmaticPlay   Game Name =  Lucky Dragon Ball  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2287  Game ID = 5159  Game Provider Name = Edict   Game Name =  MaaaxDiamonds  src = https://static.egamings.com/games/edict/maaax_diamonds.jpg</t>
+  </si>
+  <si>
+    <t>2350  Game ID = 5158  Game Provider Name = Edict   Game Name =  MagicStone  src = https://static.egamings.com/games/edict/magic_stone.jpg</t>
+  </si>
+  <si>
+    <t>2396  Game ID = 5187  Game Provider Name = Edict   Game Name =  Medusas Eyes  src = https://static.egamings.com/games/edict/medusas_eyes.jpg</t>
+  </si>
+  <si>
+    <t>2403  Game ID = 4738  Game Provider Name = Evoplay   Game Name =  Mega Greatest Catch Bоnus Buy  cod = 403   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>2439  Game ID = 5157  Game Provider Name = Edict   Game Name =  MightyDragon  src = https://static.egamings.com/games/edict/mighty_dragon.jpg</t>
+  </si>
+  <si>
+    <t>2459  Game ID = 1570  Game Provider Name = PragmaticPlay   Game Name =  Money Money Money  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2478  Game ID = 1513  Game Provider Name = PragmaticPlay   Game Name =  Monster Superlanche  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2555  Game ID = 5156  Game Provider Name = Edict   Game Name =  NightOfTheWereWolf  src = https://static.egamings.com/games/edict/night_of_the_were_wolf.jpg</t>
+  </si>
+  <si>
+    <t>2560  Game ID = 5155  Game Provider Name = Edict   Game Name =  NightWolves  src = https://static.egamings.com/games/edict/night_wolves.jpg</t>
+  </si>
+  <si>
+    <t>2595  Game ID = 5154  Game Provider Name = Edict   Game Name =  OldFisherman  src = https://static.egamings.com/games/edict/old_fisherman.jpg</t>
+  </si>
+  <si>
+    <t>2671  Game ID = 5153  Game Provider Name = Edict   Game Name =  Phantom'sMirror  src = https://static.egamings.com/games/edict/phantoms_mirror.jpg</t>
+  </si>
+  <si>
+    <t>2676  Game ID = 5152  Game Provider Name = Edict   Game Name =  PharaosRiches  src = https://static.egamings.com/games/edict/pharaos_riches.jpg</t>
+  </si>
+  <si>
+    <t>2773  Game ID = 5188  Game Provider Name = Edict   Game Name =  Princess of the Forest  src = https://static.egamings.com/games/edict/princess_of_the_forest.jpg</t>
+  </si>
+  <si>
+    <t>2777  Game ID = 1516  Game Provider Name = PragmaticPlay   Game Name =  PromoWin  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2835  Game ID = 5151  Game Provider Name = Edict   Game Name =  RamsesBookHTML5  src = https://static.egamings.com/games/edict/ramses_book_html5.jpg</t>
+  </si>
+  <si>
+    <t>2909  Game ID = 1589  Game Provider Name = PragmaticPlay   Game Name =  Rise of Samurai  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2944  Game ID = 5150  Game Provider Name = Edict   Game Name =  RomanLegionHTML5  src = https://static.egamings.com/games/edict/roman_legion_html.jpg</t>
+  </si>
+  <si>
+    <t>2945  Game ID = 5149  Game Provider Name = Edict   Game Name =  RomanLegionXtreme  src = https://static.egamings.com/games/edict/roman_legion_xtreme.jpg</t>
+  </si>
+  <si>
+    <t>3048  Game ID = 5148  Game Provider Name = Edict   Game Name =  SavannaMoon  src = https://static.egamings.com/games/edict/savanna_moon.jpg</t>
+  </si>
+  <si>
+    <t>3253  Game ID = 5147  Game Provider Name = Edict   Game Name =  StickyDiamondsHTML5  src = https://static.egamings.com/games/edict/sticky_diamonds_html.jpg</t>
+  </si>
+  <si>
+    <t>3334  Game ID = 5146  Game Provider Name = Edict   Game Name =  SuperDuperCherry  src = https://static.egamings.com/games/edict/super_duper_cherry.jpg</t>
+  </si>
+  <si>
+    <t>3364  Game ID = 5145  Game Provider Name = Edict   Game Name =  Take5HTML5  src = https://static.egamings.com/games/edict/take_5_html5.jpg</t>
+  </si>
+  <si>
+    <t>3425  Game ID = 3328  Game Provider Name = PragmaticPlay   Game Name =  The Knight King  cod = 404   src = https://resources.iqsoftllc.com/products/resources.iqsoftllc.com/products/pragmaticplay/web/knightking.jpg</t>
+  </si>
+  <si>
+    <t>3447  Game ID = 1588  Game Provider Name = PragmaticPlay   Game Name =  The Tiger Warrior  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>3463  Game ID = 5144  Game Provider Name = Edict   Game Name =  TheLandofHeroes  src = https://static.egamings.com/games/edict/the_land_of_heroes.jpg</t>
+  </si>
+  <si>
+    <t>3543  Game ID = 4739  Game Provider Name = Evoplay   Game Name =  Treasure-snipes: Christmas  cod = 403   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
+  </si>
+  <si>
+    <t>3548  Game ID = 5141  Game Provider Name = Edict   Game Name =  TribeoftheSun  src = https://static.egamings.com/games/edict/tribe_of_the_sun.jpg</t>
+  </si>
+  <si>
+    <t>3786  Game ID = 5143  Game Provider Name = Edict   Game Name =  WildRapaNui  src = https://static.egamings.com/games/edict/wild_rapa_nui.jpg</t>
+  </si>
+  <si>
+    <t>200 ID=5142 Provider=Edict Name=AfricanMask cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>271 ID=5177 Provider=Edict Name=AncientRichesHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>279 ID=5178 Provider=Edict Name=Ankaa's Dawn cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>438 ID=5176 Provider=Edict Name=BeautifulNatureHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>467 ID=5186 Provider=Edict Name=Big Buck Bunny cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>494 ID=5175 Provider=Edict Name=BlackBeauty cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>524 ID=3786 Provider=LuckyStreak Name=Blackjack 3 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>634 ID=1444 Provider=Evolution Name=Blackjack Classic 73 cod=0 description=null ResponseObject={"errors":[{"code":"V.59","message":"Table not assigned"}]}</t>
+  </si>
+  <si>
+    <t>742 ID=1524 Provider=PragmaticPlay Name=Bonanza Gold cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>755 ID=5566 Provider=IronDog Name=Book Of Ba'al cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>779 ID=5189 Provider=Edict Name=Book of Fire cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>848 ID=5174 Provider=Edict Name=BookofRomeoandJuliaHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>852 ID=5173 Provider=Edict Name=BookoftheAgesHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>855 ID=5172 Provider=Edict Name=BooksandBulls cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>922 ID=1602 Provider=PragmaticPlay Name=Busy Bees cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1152 ID=5171 Provider=Edict Name=CrystalBallHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1298 ID=5170 Provider=Edict Name=DragonandKnights cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1374 ID=5185 Provider=Edict Name=El Torero cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1418 ID=5169 Provider=Edict Name=ExplodiacHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1425 ID=5563 Provider=PlayTech Name=Extreme Fruits Ultimate cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1428 ID=5500 Provider=PlayTech Name=Eye of Anubis cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>1430 ID=5184 Provider=Edict Name=Eye of Horus cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1448 ID=5168 Provider=Edict Name=FancyFruitsHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1499 ID=5183 Provider=Edict Name=Fishin Frenzy cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1538 ID=5167 Provider=Edict Name=FortBraveHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1610 ID=5166 Provider=Edict Name=FruitManiaHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1651 ID=3268 Provider=SmartSoft Name=Fun Fruit cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1668 ID=5165 Provider=Edict Name=GatesofPersia cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1676 ID=5560 Provider=PlayTech Name=GemBurst cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1692 ID=5559 Provider=PlayTech Name=Giant Grizzly cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1703 ID=5164 Provider=Edict Name=GlamorousTimesHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1752 ID=5182 Provider=Edict Name=Golden Goose cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1765 ID=1531 Provider=PragmaticPlay Name=Golden Ox cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1766 ID=1565 Provider=PragmaticPlay Name=Golden Pig cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1814 ID=5163 Provider=Edict Name=GuardiansOfTheMonastery cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2111 ID=5162 Provider=Edict Name=KingandQueen cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2113 ID=5161 Provider=Edict Name=KingoftheJungle cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2132 ID=5160 Provider=Edict Name=LaDolceVitaHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2158 ID=5557 Provider=PlayTech Name=Legend of the Jaguar cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2233 ID=1598 Provider=PragmaticPlay Name=Lucky Dragon Ball cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2282 ID=5555 Provider=PlayTech Name=LuckyU cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2288 ID=5159 Provider=Edict Name=MaaaxDiamonds cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2351 ID=5158 Provider=Edict Name=MagicStone cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2397 ID=5187 Provider=Edict Name=Medusas Eyes cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2440 ID=5157 Provider=Edict Name=MightyDragon cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2460 ID=1570 Provider=PragmaticPlay Name=Money Money Money cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2539 ID=5609 Provider=IronDog Name=Neon Jungle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2556 ID=5156 Provider=Edict Name=NightOfTheWereWolf cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2561 ID=5155 Provider=Edict Name=NightWolves cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2587 ID=5552 Provider=PlayTech Name=Oceanus Rising cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2596 ID=5154 Provider=Edict Name=OldFisherman cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2602 ID=5190 Provider=Edict Name=Omuato cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2635 ID=5550 Provider=PlayTech Name=Pantry Plunder cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2672 ID=5153 Provider=Edict Name=Phantom'sMirror cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2677 ID=5152 Provider=Edict Name=PharaosRiches cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2774 ID=5188 Provider=Edict Name=Princess of the Forest cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2836 ID=5151 Provider=Edict Name=RamsesBookHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2910 ID=1589 Provider=PragmaticPlay Name=Rise of Samurai cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2945 ID=5150 Provider=Edict Name=RomanLegionHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2946 ID=5149 Provider=Edict Name=RomanLegionXtreme cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2984 ID=2712 Provider=BFGames Name=Royal Crown cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2985 ID=2689 Provider=BFGames Name=Royal Crown Remastered cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3045 ID=5181 Provider=Edict Name=Savanna Stampede cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3049 ID=5148 Provider=Edict Name=SavannaMoon cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3090 ID=5654 Provider=Belatra Name=Shogun's Fortune cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3254 ID=5147 Provider=Edict Name=StickyDiamondsHTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3335 ID=5146 Provider=Edict Name=SuperDuperCherry cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3365 ID=5145 Provider=Edict Name=Take5HTML5 cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3448 ID=1588 Provider=PragmaticPlay Name=The Tiger Warrior cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3453 ID=5180 Provider=Edict Name=Theatre Of Rome cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3464 ID=5144 Provider=Edict Name=TheLandofHeroes cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3549 ID=5141 Provider=Edict Name=TribeoftheSun cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3559 ID=5179 Provider=Edict Name=Triple Flame cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>3787 ID=5143 Provider=Edict Name=WildRapaNui cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>196  Game ID = 5142  Game Provider Name = Edict  Game Name = AfricanMask  :   src = https://static.egamings.com/games/edict/african_mask.jpg</t>
+  </si>
+  <si>
+    <t>266  Game ID = 5177  Game Provider Name = Edict  Game Name = AncientRichesHTML5  :   src = https://static.egamings.com/games/edict/ancient_riches_html5.jpg</t>
+  </si>
+  <si>
+    <t>431  Game ID = 5176  Game Provider Name = Edict  Game Name = BeautifulNatureHTML5  :   src = https://static.egamings.com/games/edict/beautiful_nature_html5.jpg</t>
+  </si>
+  <si>
+    <t>486  Game ID = 5175  Game Provider Name = Edict  Game Name = BlackBeauty  :   src = https://static.egamings.com/games/edict/black_beauty.jpg</t>
+  </si>
+  <si>
+    <t>735  Game ID = 1524  Game Provider Name = PragmaticPlay  Game Name = Bonanza Gold  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>772  Game ID = 5189  Game Provider Name = Edict  Game Name = Book of Fire  :   src = https://static.egamings.com/games/edict/book_of_fire.jpg</t>
+  </si>
+  <si>
+    <t>822  Game ID = 1597  Game Provider Name = PragmaticPlay  Game Name = Book of Tut  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>841  Game ID = 5174  Game Provider Name = Edict  Game Name = BookofRomeoandJuliaHTML5  :   src = https://static.egamings.com/games/edict/book_of_romeo_and_julia_html.jpg</t>
+  </si>
+  <si>
+    <t>845  Game ID = 5173  Game Provider Name = Edict  Game Name = BookoftheAgesHTML5  :   src = https://static.egamings.com/games/edict/book_of_the_ages_html5.jpg</t>
+  </si>
+  <si>
+    <t>848  Game ID = 5172  Game Provider Name = Edict  Game Name = BooksandBulls  :   src = https://static.egamings.com/games/edict/books_and_bulls.jpg</t>
+  </si>
+  <si>
+    <t>914  Game ID = 1602  Game Provider Name = PragmaticPlay  Game Name = Busy Bees  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1083  Game ID = 1515  Game Provider Name = PragmaticPlay  Game Name = Club Tropicana  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1140  Game ID = 5171  Game Provider Name = Edict  Game Name = CrystalBallHTML5  :   src = https://static.egamings.com/games/edict/crystal_ball_html.jpg</t>
+  </si>
+  <si>
+    <t>1281  Game ID = 5170  Game Provider Name = Edict  Game Name = DragonandKnights  :   src = https://static.egamings.com/games/edict/dragon_and_knights.jpg</t>
+  </si>
+  <si>
+    <t>1399  Game ID = 5169  Game Provider Name = Edict  Game Name = ExplodiacHTML5  :   src = https://static.egamings.com/games/edict/explodiac_html.jpg</t>
+  </si>
+  <si>
+    <t>1429  Game ID = 5168  Game Provider Name = Edict  Game Name = FancyFruitsHTML5  :   src = https://static.egamings.com/games/edict/fancy_fruits_html.jpg</t>
+  </si>
+  <si>
+    <t>1451  Game ID = 1514  Game Provider Name = PragmaticPlay  Game Name = Fire Archer  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1516  Game ID = 5167  Game Provider Name = Edict  Game Name = FortBraveHTML5  :   src = https://static.egamings.com/games/edict/fort_brave_html.jpg</t>
+  </si>
+  <si>
+    <t>1585  Game ID = 5166  Game Provider Name = Edict  Game Name = FruitManiaHTML5  :   src = https://static.egamings.com/games/edict/fruit_mania_html.jpg</t>
+  </si>
+  <si>
+    <t>1642  Game ID = 5165  Game Provider Name = Edict  Game Name = GatesofPersia  :   src = https://static.egamings.com/games/edict/gates_of_persia.jpg</t>
+  </si>
+  <si>
+    <t>1675  Game ID = 5164  Game Provider Name = Edict  Game Name = GlamorousTimesHTML5  :   src = https://static.egamings.com/games/edict/glamorous_times_html5.jpg</t>
+  </si>
+  <si>
+    <t>1734  Game ID = 1531  Game Provider Name = PragmaticPlay  Game Name = Golden Ox  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1735  Game ID = 1565  Game Provider Name = PragmaticPlay  Game Name = Golden Pig  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1782  Game ID = 5163  Game Provider Name = Edict  Game Name = GuardiansOfTheMonastery  :   src = https://static.egamings.com/games/edict/guardians_of_the_monastery.jpg</t>
+  </si>
+  <si>
+    <t>2076  Game ID = 5162  Game Provider Name = Edict  Game Name = KingandQueen  :   src = https://static.egamings.com/games/edict/king_and_queen.jpg</t>
+  </si>
+  <si>
+    <t>2078  Game ID = 5161  Game Provider Name = Edict  Game Name = KingoftheJungle  :   src = https://static.egamings.com/games/edict/king_of_the_jungle.jpg</t>
+  </si>
+  <si>
+    <t>2097  Game ID = 5160  Game Provider Name = Edict  Game Name = LaDolceVitaHTML5  :   src = https://static.egamings.com/games/edict/la_dolce_vita_html5.jpg</t>
+  </si>
+  <si>
+    <t>2195  Game ID = 1598  Game Provider Name = PragmaticPlay  Game Name = Lucky Dragon Ball  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2250  Game ID = 5159  Game Provider Name = Edict  Game Name = MaaaxDiamonds  :   src = https://static.egamings.com/games/edict/maaax_diamonds.jpg</t>
+  </si>
+  <si>
+    <t>2312  Game ID = 5158  Game Provider Name = Edict  Game Name = MagicStone  :   src = https://static.egamings.com/games/edict/magic_stone.jpg</t>
+  </si>
+  <si>
+    <t>2358  Game ID = 5187  Game Provider Name = Edict  Game Name = Medusas Eyes  :   src = https://static.egamings.com/games/edict/medusas_eyes.jpg</t>
+  </si>
+  <si>
+    <t>2365  Game ID = 4738  Game Provider Name = Evoplay  Game Name = Mega Greatest Catch Bоnus Buy  :   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>2400  Game ID = 5157  Game Provider Name = Edict  Game Name = MightyDragon  :   src = https://static.egamings.com/games/edict/mighty_dragon.jpg</t>
+  </si>
+  <si>
+    <t>2420  Game ID = 1570  Game Provider Name = PragmaticPlay  Game Name = Money Money Money  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2438  Game ID = 1513  Game Provider Name = PragmaticPlay  Game Name = Monster Superlanche  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2513  Game ID = 5156  Game Provider Name = Edict  Game Name = NightOfTheWereWolf  :   src = https://static.egamings.com/games/edict/night_of_the_were_wolf.jpg</t>
+  </si>
+  <si>
+    <t>2518  Game ID = 5155  Game Provider Name = Edict  Game Name = NightWolves  :   src = https://static.egamings.com/games/edict/night_wolves.jpg</t>
+  </si>
+  <si>
+    <t>2552  Game ID = 5154  Game Provider Name = Edict  Game Name = OldFisherman  :   src = https://static.egamings.com/games/edict/old_fisherman.jpg</t>
+  </si>
+  <si>
+    <t>2628  Game ID = 5153  Game Provider Name = Edict  Game Name = Phantom'sMirror  :   src = https://static.egamings.com/games/edict/phantoms_mirror.jpg</t>
+  </si>
+  <si>
+    <t>2633  Game ID = 5152  Game Provider Name = Edict  Game Name = PharaosRiches  :   src = https://static.egamings.com/games/edict/pharaos_riches.jpg</t>
+  </si>
+  <si>
+    <t>2730  Game ID = 5188  Game Provider Name = Edict  Game Name = Princess of the Forest  :   src = https://static.egamings.com/games/edict/princess_of_the_forest.jpg</t>
+  </si>
+  <si>
+    <t>2734  Game ID = 1516  Game Provider Name = PragmaticPlay  Game Name = PromoWin  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2791  Game ID = 5151  Game Provider Name = Edict  Game Name = RamsesBookHTML5  :   src = https://static.egamings.com/games/edict/ramses_book_html5.jpg</t>
+  </si>
+  <si>
+    <t>2864  Game ID = 1589  Game Provider Name = PragmaticPlay  Game Name = Rise of Samurai  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2898  Game ID = 5150  Game Provider Name = Edict  Game Name = RomanLegionHTML5  :   src = https://static.egamings.com/games/edict/roman_legion_html.jpg</t>
+  </si>
+  <si>
+    <t>2899  Game ID = 5149  Game Provider Name = Edict  Game Name = RomanLegionXtreme  :   src = https://static.egamings.com/games/edict/roman_legion_xtreme.jpg</t>
+  </si>
+  <si>
+    <t>3005  Game ID = 5148  Game Provider Name = Edict  Game Name = SavannaMoon  :   src = https://static.egamings.com/games/edict/savanna_moon.jpg</t>
+  </si>
+  <si>
+    <t>3211  Game ID = 5147  Game Provider Name = Edict  Game Name = StickyDiamondsHTML5  :   src = https://static.egamings.com/games/edict/sticky_diamonds_html.jpg</t>
+  </si>
+  <si>
+    <t>3291  Game ID = 5146  Game Provider Name = Edict  Game Name = SuperDuperCherry  :   src = https://static.egamings.com/games/edict/super_duper_cherry.jpg</t>
+  </si>
+  <si>
+    <t>3320  Game ID = 5145  Game Provider Name = Edict  Game Name = Take5HTML5  :   src = https://static.egamings.com/games/edict/take_5_html5.jpg</t>
+  </si>
+  <si>
+    <t>3380  Game ID = 3328  Game Provider Name = PragmaticPlay  Game Name = The Knight King  :   src = https://resources.iqsoftllc.com/products/resources.iqsoftllc.com/products/pragmaticplay/mob/knightking.jpg</t>
+  </si>
+  <si>
+    <t>3402  Game ID = 1588  Game Provider Name = PragmaticPlay  Game Name = The Tiger Warrior  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>3417  Game ID = 5144  Game Provider Name = Edict  Game Name = TheLandofHeroes  :   src = https://static.egamings.com/games/edict/the_land_of_heroes.jpg</t>
+  </si>
+  <si>
+    <t>3495  Game ID = 4739  Game Provider Name = Evoplay  Game Name = Treasure-snipes: Christmas  :   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
+  </si>
+  <si>
+    <t>3500  Game ID = 5141  Game Provider Name = Edict  Game Name = TribeoftheSun  :   src = https://static.egamings.com/games/edict/tribe_of_the_sun.jpg</t>
+  </si>
+  <si>
+    <t>3735  Game ID = 5143  Game Provider Name = Edict  Game Name = WildRapaNui  :   src = https://static.egamings.com/games/edict/wild_rapa_nui.jpg</t>
+  </si>
+  <si>
+    <t>75  This game has duplicate Please check it :  Name =  Halloween</t>
+  </si>
+  <si>
+    <t>76  This game has duplicate Please check it :  Name =  Jacks or Better</t>
+  </si>
+  <si>
+    <t>77  This game has duplicate Please check it :  Name =  Journey to the West</t>
+  </si>
+  <si>
+    <t>78  This game has duplicate Please check it :  Name =  Lobby</t>
+  </si>
+  <si>
+    <t>79  This game has duplicate Please check it :  Name =  Multihand Blackjack</t>
+  </si>
+  <si>
+    <t>80  This game has duplicate Please check it :  Name =  No Comm Speed Baccarat 1</t>
+  </si>
+  <si>
+    <t>81  This game has duplicate Please check it :  Name =  No Commission Baccarat</t>
+  </si>
+  <si>
+    <t>82  This game has duplicate Please check it :  Name =  Pontoon</t>
+  </si>
+  <si>
+    <t>83  This game has duplicate Please check it :  Name =  Roman Empire</t>
+  </si>
+  <si>
+    <t>84  This game has duplicate Please check it :  Name =  Roulette</t>
+  </si>
+  <si>
+    <t>90  This game has duplicate Please check it :  Name =  Sic Bo</t>
+  </si>
+  <si>
+    <t>93  This game has duplicate Please check it :  Name =  Speed Roulette</t>
+  </si>
+  <si>
+    <t>94  This game has duplicate Please check it :  Name =  Teen Patti</t>
+  </si>
+  <si>
+    <t>95  This game has duplicate Please check it :  Name =  Unlimited Blackjack</t>
+  </si>
+  <si>
+    <t>96  This game has duplicate Please check it :  Name =  Virtual Roulette</t>
+  </si>
+  <si>
+    <t>97  This game has duplicate Please check it :  Name =  Wild Jack</t>
+  </si>
+  <si>
+    <t>817  Game ID = 1597  Game Provider Name = PragmaticPlay   Game Name =  Book of Tut  cod = 404   src = https://resources.iqsoftllc.com/products/pragmaticplay/web/bookoftut.jpg</t>
+  </si>
+  <si>
+    <t>1076  Game ID = 1515  Game Provider Name = PragmaticPlay   Game Name =  Club Tropicana  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1449  Game ID = 1514  Game Provider Name = PragmaticPlay   Game Name =  Fire Archer  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2359  Game ID = 4738  Game Provider Name = Evoplay   Game Name =  Mega Greatest Catch Bоnus Buy  cod = 403   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>2432  Game ID = 1513  Game Provider Name = PragmaticPlay   Game Name =  Monster Superlanche  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2721  Game ID = 1516  Game Provider Name = PragmaticPlay   Game Name =  PromoWin  cod = 403   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>3357  Game ID = 3328  Game Provider Name = PragmaticPlay   Game Name =  The Knight King  cod = 404   src = https://resources.iqsoftllc.com/products/resources.iqsoftllc.com/products/pragmaticplay/web/knightking.jpg</t>
+  </si>
+  <si>
+    <t>3472  Game ID = 4739  Game Provider Name = Evoplay   Game Name =  Treasure-snipes: Christmas  cod = 403   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
+  </si>
+  <si>
+    <t>243 ID=1961 Provider=RedTigerGaming Name=Amazon Island MegaWays cod=0 description=null ResponseObject=Transactions ID failed value</t>
+  </si>
+  <si>
+    <t>938 ID=4534 Provider=Yggdrasil Name=Cannonade! cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>1406 ID=5563 Provider=PlayTech Name=Extreme Fruits Ultimate cod=0 description=null ResponseObject=Product blocked for this partner</t>
+  </si>
+  <si>
+    <t>2535 ID=2719 Provider=BFGames Name=Ocean Reef cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2573 ID=2718 Provider=BFGames Name=Pagoda of Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2619 ID=2717 Provider=BFGames Name=Pharaohs and Aliens cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2739 ID=2716 Provider=BFGames Name=Pyramid Treasure cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2779 ID=2755 Provider=BFGames Name=Ramses Rising cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2836 ID=2715 Provider=BFGames Name=Rich Castle cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2841 ID=2714 Provider=BFGames Name=Riches From The Deep cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>2887 ID=2713 Provider=BFGames Name=Rome Warrior cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3164 ID=2696 Provider=BFGames Name=Squid from the Deep cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3174 ID=2711 Provider=BFGames Name=Star Fortune cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3175 ID=2700 Provider=BFGames Name=Star Settler cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3184 ID=2752 Provider=BFGames Name=Steampunk Big City cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3210 ID=2710 Provider=BFGames Name=Stunning 27 cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3211 ID=2687 Provider=BFGames Name=Stunning 27 Remastered cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3212 ID=2698 Provider=BFGames Name=Stunning Cash cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3213 ID=2757 Provider=BFGames Name=Stunning Cash Ultra cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3214 ID=2691 Provider=BFGames Name=Stunning Cube cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3215 ID=2709 Provider=BFGames Name=Stunning Hot cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3216 ID=2707 Provider=BFGames Name=Stunning Hot 20 Deluxe cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3217 ID=2690 Provider=BFGames Name=Stunning Hot 20 Deluxe Remastered cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3218 ID=2708 Provider=BFGames Name=Stunning Hot Remastered cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3219 ID=2706 Provider=BFGames Name=Stunning snow cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3220 ID=2688 Provider=BFGames Name=Stunning snow Remastered cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3462 ID=2704 Provider=BFGames Name=Transylvanian Beauty cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>3653 ID=1793 Provider=PariPlay Name=Wild Cherry cod=0 description=null ResponseObject=24</t>
+  </si>
+  <si>
+    <t>811  Game ID = 1597  Game Provider Name = PragmaticPlay  Game Name = Book of Tut  :   src = https://resources.iqsoftllc.com/products/pragmaticplay/mob/bookoftut.jpg</t>
+  </si>
+  <si>
+    <t>1068  Game ID = 1515  Game Provider Name = PragmaticPlay  Game Name = Club Tropicana  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>1429  Game ID = 1514  Game Provider Name = PragmaticPlay  Game Name = Fire Archer  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2321  Game ID = 4738  Game Provider Name = Evoplay  Game Name = Mega Greatest Catch Bоnus Buy  :   src = https://agstatic.com/games/evoplay/mega_greatest_catch_b?nus_buy.jpg</t>
+  </si>
+  <si>
+    <t>2392  Game ID = 1513  Game Provider Name = PragmaticPlay  Game Name = Monster Superlanche  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>2678  Game ID = 1516  Game Provider Name = PragmaticPlay  Game Name = PromoWin  :   src = https://resources.prdbtzmrk.com/products/</t>
+  </si>
+  <si>
+    <t>3312  Game ID = 3328  Game Provider Name = PragmaticPlay  Game Name = The Knight King  :   src = https://resources.iqsoftllc.com/products/resources.iqsoftllc.com/products/pragmaticplay/mob/knightking.jpg</t>
+  </si>
+  <si>
+    <t>3424  Game ID = 4739  Game Provider Name = Evoplay  Game Name = Treasure-snipes: Christmas  :   src = https://agstatic.com/games/evoplay/treasure_snipes_?hristmas.jpg</t>
   </si>
 </sst>
 </file>
@@ -1132,9 +2164,9 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A97"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1145,7 +2177,487 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -1153,9 +2665,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="195.3125"/>
+  </cols>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1166,22 +2693,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>658</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>303</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>660</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>305</v>
+        <v>661</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -1189,9 +2736,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1202,222 +2749,142 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>666</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>307</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>308</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>310</v>
+        <v>670</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>311</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>312</v>
+        <v>672</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>314</v>
+        <v>674</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>316</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>317</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>318</v>
+        <v>678</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>319</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>320</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>681</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>322</v>
+        <v>682</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>325</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>326</v>
+        <v>686</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>687</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>328</v>
+        <v>688</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>329</v>
+        <v>689</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>330</v>
+        <v>690</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>331</v>
+        <v>691</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>332</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>349</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +2892,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:A8"/>
   <sheetViews>
@@ -1438,283 +2905,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>694</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>351</v>
+        <v>695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>352</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>353</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>354</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>355</v>
+        <v>699</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>356</v>
+        <v>700</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>357</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="195.3125"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>300</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
